--- a/blog/content/KurseMscECMX.xlsx
+++ b/blog/content/KurseMscECMX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/Documents/blabla/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan/git/WebEcon/blog/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C422B0BB-45DA-2643-84F8-C2FB6D69566D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59165CCE-DE5A-9848-ACD3-7139DBCF7351}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="31220" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KursplanWS" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="665">
   <si>
     <t>Kursübersicht M.Sc. Econometrics | Wintersemester</t>
   </si>
@@ -6797,6 +6797,45 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6806,106 +6845,19 @@
     <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6914,7 +6866,55 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6923,10 +6923,19 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="3" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6934,15 +6943,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7376,22 +7376,22 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:23" ht="30" customHeight="1">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="J2" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:23" ht="12" customHeight="1"/>
     <row r="4" spans="2:23" ht="25.5" customHeight="1">
@@ -7399,35 +7399,35 @@
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="151" t="s">
+      <c r="L4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="151" t="s">
+      <c r="P4" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="151" t="s">
+      <c r="T4" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="35" customHeight="1">
@@ -7435,7 +7435,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="157" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -7446,7 +7446,7 @@
       <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="153" t="s">
+      <c r="J5" s="156" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="5"/>
@@ -7458,10 +7458,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="152" t="s">
+      <c r="T5" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="154" t="s">
+      <c r="U5" s="153" t="s">
         <v>15</v>
       </c>
       <c r="V5" s="10" t="s">
@@ -7474,32 +7474,32 @@
         <v>0.3541666666666663</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="155" t="s">
+      <c r="D6" s="157"/>
+      <c r="E6" s="160" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="153"/>
+      <c r="J6" s="156"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="154" t="s">
+      <c r="M6" s="153" t="s">
         <v>18</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="153" t="s">
         <v>12</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="154"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="153"/>
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="2:23" ht="35" customHeight="1">
@@ -7508,24 +7508,24 @@
         <v>0.37499999999999961</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="155"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="160"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="154"/>
+      <c r="M7" s="153"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="154"/>
+      <c r="Q7" s="153"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="152"/>
-      <c r="U7" s="154"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="153"/>
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="2:23" ht="35" customHeight="1">
@@ -7534,24 +7534,24 @@
         <v>0.39583333333333293</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="155"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="160"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="156"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="154"/>
+      <c r="M8" s="153"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="154"/>
+      <c r="Q8" s="153"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="154"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="153"/>
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="2:23" ht="35" customHeight="1">
@@ -7560,24 +7560,24 @@
         <v>0.41666666666666624</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="155"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="160"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="156"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="154"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="154"/>
+      <c r="Q9" s="153"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="154"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="153"/>
       <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:23" ht="35" customHeight="1">
@@ -7586,10 +7586,10 @@
         <v>0.41666666666666624</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="153" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="16"/>
@@ -7597,35 +7597,35 @@
       <c r="H10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="153" t="s">
+      <c r="J10" s="156" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="156" t="s">
+      <c r="L10" s="154" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="153" t="s">
+      <c r="N10" s="156" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="17"/>
-      <c r="P10" s="152" t="s">
+      <c r="P10" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="154" t="s">
+      <c r="Q10" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="157" t="s">
+      <c r="R10" s="158" t="s">
         <v>28</v>
       </c>
       <c r="S10" s="17"/>
-      <c r="T10" s="152" t="s">
+      <c r="T10" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="154" t="s">
+      <c r="U10" s="153" t="s">
         <v>30</v>
       </c>
       <c r="V10" s="18"/>
@@ -7636,24 +7636,24 @@
         <v>0.43749999999999956</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="156"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="156"/>
+      <c r="L11" s="154"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="153"/>
+      <c r="N11" s="156"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="158"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="154"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="153"/>
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="2:23" ht="35" customHeight="1">
@@ -7662,24 +7662,24 @@
         <v>0.45833333333333287</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="153"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="156"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="156"/>
+      <c r="L12" s="154"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="153"/>
+      <c r="N12" s="156"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="158"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="154"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="153"/>
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="2:23" ht="35" customHeight="1">
@@ -7688,24 +7688,24 @@
         <v>0.47916666666666619</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="153"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="156"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="156"/>
+      <c r="L13" s="154"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="153"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="158"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="154"/>
+      <c r="T13" s="157"/>
+      <c r="U13" s="153"/>
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="2:23" ht="35" customHeight="1">
@@ -7714,23 +7714,23 @@
         <v>0.4999999999999995</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="153"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="156"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="156"/>
+      <c r="L14" s="154"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="153"/>
+      <c r="N14" s="156"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="154"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="153"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="154"/>
+      <c r="T14" s="157"/>
+      <c r="U14" s="153"/>
       <c r="V14" s="13"/>
     </row>
     <row r="15" spans="2:23" ht="35" customHeight="1">
@@ -7739,24 +7739,24 @@
         <v>0.4999999999999995</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="157" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="156" t="s">
+      <c r="H15" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="154" t="s">
+      <c r="I15" s="153" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="156" t="s">
+      <c r="L15" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="154" t="s">
+      <c r="M15" s="153" t="s">
         <v>35</v>
       </c>
       <c r="N15" s="17"/>
@@ -7765,10 +7765,10 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="156" t="s">
+      <c r="T15" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="154" t="s">
+      <c r="U15" s="153" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="18"/>
@@ -7779,26 +7779,26 @@
         <v>0.52083333333333282</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="154" t="s">
+      <c r="D16" s="157"/>
+      <c r="E16" s="153" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="153"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="153"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="153"/>
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="2:22" ht="35" customHeight="1">
@@ -7807,24 +7807,24 @@
         <v>0.54166666666666619</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="154"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="153"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="153"/>
       <c r="V17" s="10"/>
     </row>
     <row r="18" spans="2:22" ht="35" customHeight="1">
@@ -7833,25 +7833,25 @@
         <v>0.56249999999999956</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="154"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="153"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="153"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="158" t="s">
+      <c r="T18" s="154"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="155" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7861,25 +7861,25 @@
         <v>0.58333333333333293</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="154"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="153"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="153"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="153"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="158"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="155"/>
     </row>
     <row r="20" spans="2:22" ht="35" customHeight="1">
       <c r="B20" s="14">
@@ -7887,41 +7887,41 @@
         <v>0.58333333333333293</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="154" t="s">
+      <c r="E20" s="153" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="156" t="s">
+      <c r="H20" s="154" t="s">
         <v>41</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="153" t="s">
+      <c r="J20" s="156" t="s">
         <v>42</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="153" t="s">
+      <c r="N20" s="156" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="5"/>
-      <c r="P20" s="156" t="s">
+      <c r="P20" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="154" t="s">
+      <c r="Q20" s="153" t="s">
         <v>27</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="152" t="s">
+      <c r="T20" s="157" t="s">
         <v>45</v>
       </c>
       <c r="U20" s="5"/>
-      <c r="V20" s="158"/>
+      <c r="V20" s="155"/>
     </row>
     <row r="21" spans="2:22" ht="35" customHeight="1">
       <c r="B21" s="19">
@@ -7929,25 +7929,25 @@
         <v>0.6041666666666663</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="153"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="156"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="153"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="153"/>
+      <c r="N21" s="156"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="153"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="152"/>
+      <c r="T21" s="157"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="158"/>
+      <c r="V21" s="155"/>
     </row>
     <row r="22" spans="2:22" ht="35" customHeight="1">
       <c r="B22" s="19">
@@ -7955,25 +7955,25 @@
         <v>0.62499999999999967</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="153"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="156"/>
+      <c r="H22" s="154"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="153"/>
+      <c r="J22" s="156"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="153"/>
+      <c r="N22" s="156"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="153"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="152"/>
+      <c r="T22" s="157"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="158"/>
+      <c r="V22" s="155"/>
     </row>
     <row r="23" spans="2:22" ht="35" customHeight="1">
       <c r="B23" s="19">
@@ -7981,25 +7981,25 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="153"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="156"/>
+      <c r="H23" s="154"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="153"/>
+      <c r="J23" s="156"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="153"/>
+      <c r="N23" s="156"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="153"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="152"/>
+      <c r="T23" s="157"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="158"/>
+      <c r="V23" s="155"/>
     </row>
     <row r="24" spans="2:22" ht="35" customHeight="1">
       <c r="B24" s="22">
@@ -8007,23 +8007,23 @@
         <v>0.66666666666666641</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="156"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="156"/>
+      <c r="H24" s="154"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="153"/>
+      <c r="J24" s="156"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="153"/>
+      <c r="N24" s="156"/>
       <c r="O24" s="12"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="153"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="152"/>
+      <c r="T24" s="157"/>
       <c r="U24" s="12"/>
       <c r="V24" s="13"/>
     </row>
@@ -8038,21 +8038,21 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="154" t="s">
+      <c r="I25" s="153" t="s">
         <v>46</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="152" t="s">
+      <c r="L25" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="154" t="s">
+      <c r="M25" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="153"/>
+      <c r="N25" s="156"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="154" t="s">
+      <c r="Q25" s="153" t="s">
         <v>49</v>
       </c>
       <c r="R25" s="17"/>
@@ -8072,15 +8072,15 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="154"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="153"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="156"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="154"/>
+      <c r="Q26" s="153"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -8098,15 +8098,15 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="154"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="153"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="156"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="154"/>
+      <c r="Q27" s="153"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -8124,15 +8124,15 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="154"/>
+      <c r="I28" s="153"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="153"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="156"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="154"/>
+      <c r="Q28" s="153"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -8150,15 +8150,15 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="154"/>
+      <c r="I29" s="153"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="153"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="156"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="154"/>
+      <c r="Q29" s="153"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
@@ -8176,7 +8176,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="154" t="s">
+      <c r="I30" s="153" t="s">
         <v>50</v>
       </c>
       <c r="J30" s="5"/>
@@ -8203,7 +8203,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="154"/>
+      <c r="I31" s="153"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -8228,7 +8228,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="154"/>
+      <c r="I32" s="153"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -8253,7 +8253,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="154"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -8278,7 +8278,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="154"/>
+      <c r="I34" s="153"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
@@ -8342,37 +8342,37 @@
     <row r="39" spans="2:23" ht="25.5" customHeight="1">
       <c r="B39" s="26"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="159"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="159"/>
-      <c r="U39" s="159"/>
-      <c r="V39" s="159"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="2:23" ht="25.5" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="161"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="148"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="151"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
@@ -8389,20 +8389,20 @@
     <row r="41" spans="2:23" ht="25.5" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="161"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="151"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="161"/>
+      <c r="M41" s="148"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="161"/>
+      <c r="Q41" s="148"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -8412,20 +8412,20 @@
     <row r="42" spans="2:23" ht="25.5" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="161"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="148"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="162"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="151"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="161"/>
+      <c r="M42" s="148"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="161"/>
+      <c r="Q42" s="148"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -8435,20 +8435,20 @@
     <row r="43" spans="2:23" ht="25.5" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="161"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="148"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="162"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="151"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="161"/>
+      <c r="M43" s="148"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="161"/>
+      <c r="Q43" s="148"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -8458,20 +8458,20 @@
     <row r="44" spans="2:23" ht="25.5" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="161"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="148"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="162"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="151"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="161"/>
+      <c r="M44" s="148"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="161"/>
+      <c r="Q44" s="148"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -8481,15 +8481,15 @@
     <row r="45" spans="2:23" ht="25.5" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="160"/>
-      <c r="E45" s="161"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="148"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="162"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="160"/>
+      <c r="L45" s="149"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="5"/>
@@ -8497,22 +8497,22 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="160"/>
+      <c r="T45" s="149"/>
       <c r="U45" s="5"/>
       <c r="V45" s="25"/>
     </row>
     <row r="46" spans="2:23" ht="25.5" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="161"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="148"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="151"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="160"/>
+      <c r="L46" s="149"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="5"/>
@@ -8520,22 +8520,22 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="160"/>
+      <c r="T46" s="149"/>
       <c r="U46" s="5"/>
       <c r="V46" s="25"/>
     </row>
     <row r="47" spans="2:23" ht="25.5" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="161"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="148"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="162"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="151"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="160"/>
+      <c r="L47" s="149"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="5"/>
@@ -8543,22 +8543,22 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="160"/>
+      <c r="T47" s="149"/>
       <c r="U47" s="5"/>
       <c r="V47" s="25"/>
     </row>
     <row r="48" spans="2:23" ht="25.5" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="161"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="148"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="151"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="160"/>
+      <c r="L48" s="149"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="5"/>
@@ -8566,22 +8566,22 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="160"/>
+      <c r="T48" s="149"/>
       <c r="U48" s="5"/>
       <c r="V48" s="25"/>
     </row>
     <row r="49" spans="2:22" ht="25.5" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="161"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="148"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="151"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="160"/>
+      <c r="L49" s="149"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="5"/>
@@ -8589,14 +8589,14 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="160"/>
+      <c r="T49" s="149"/>
       <c r="U49" s="5"/>
       <c r="V49" s="25"/>
     </row>
     <row r="50" spans="2:22" ht="25.5" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="160"/>
+      <c r="D50" s="149"/>
       <c r="E50" s="27"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -8605,22 +8605,22 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="161"/>
+      <c r="M50" s="148"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="163"/>
+      <c r="T50" s="150"/>
       <c r="U50" s="5"/>
       <c r="V50" s="25"/>
     </row>
     <row r="51" spans="2:22" ht="25.5" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="161"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="148"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="5"/>
@@ -8628,22 +8628,22 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="161"/>
+      <c r="M51" s="148"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="163"/>
+      <c r="T51" s="150"/>
       <c r="U51" s="5"/>
       <c r="V51" s="25"/>
     </row>
     <row r="52" spans="2:22" ht="25.5" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="161"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="148"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="5"/>
@@ -8651,22 +8651,22 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="161"/>
+      <c r="M52" s="148"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="163"/>
+      <c r="T52" s="150"/>
       <c r="U52" s="5"/>
       <c r="V52" s="25"/>
     </row>
     <row r="53" spans="2:22" ht="25.5" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="161"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="148"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="5"/>
@@ -8674,22 +8674,22 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="161"/>
+      <c r="M53" s="148"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="163"/>
+      <c r="T53" s="150"/>
       <c r="U53" s="5"/>
       <c r="V53" s="25"/>
     </row>
     <row r="54" spans="2:22" ht="25.5" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="161"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="148"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="5"/>
@@ -8697,14 +8697,14 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="161"/>
+      <c r="M54" s="148"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="163"/>
+      <c r="T54" s="150"/>
       <c r="U54" s="5"/>
       <c r="V54" s="25"/>
     </row>
@@ -8712,7 +8712,7 @@
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="161"/>
+      <c r="E55" s="148"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="5"/>
@@ -8735,7 +8735,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="161"/>
+      <c r="E56" s="148"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="5"/>
@@ -8758,7 +8758,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="161"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="5"/>
@@ -8781,7 +8781,7 @@
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="161"/>
+      <c r="E58" s="148"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="5"/>
@@ -8831,15 +8831,15 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="161"/>
+      <c r="I60" s="148"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="160"/>
+      <c r="L60" s="149"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="161"/>
+      <c r="Q60" s="148"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -8854,15 +8854,15 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="161"/>
+      <c r="I61" s="148"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="160"/>
+      <c r="L61" s="149"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="161"/>
+      <c r="Q61" s="148"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
@@ -8877,15 +8877,15 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="161"/>
+      <c r="I62" s="148"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="160"/>
+      <c r="L62" s="149"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="161"/>
+      <c r="Q62" s="148"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
@@ -8900,15 +8900,15 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="161"/>
+      <c r="I63" s="148"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="160"/>
+      <c r="L63" s="149"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="161"/>
+      <c r="Q63" s="148"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
@@ -8923,15 +8923,15 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="161"/>
+      <c r="I64" s="148"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="160"/>
+      <c r="L64" s="149"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="161"/>
+      <c r="Q64" s="148"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
@@ -9055,31 +9055,38 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="L60:L64"/>
-    <mergeCell ref="Q60:Q64"/>
-    <mergeCell ref="T45:T49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="T50:T54"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="U10:U14"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="M15:M19"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="N10:N14"/>
+    <mergeCell ref="P10:P14"/>
+    <mergeCell ref="Q10:Q14"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="L10:L14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="V18:V23"/>
@@ -9096,38 +9103,31 @@
     <mergeCell ref="M25:M29"/>
     <mergeCell ref="Q25:Q29"/>
     <mergeCell ref="T15:T19"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="N10:N14"/>
-    <mergeCell ref="P10:P14"/>
-    <mergeCell ref="Q10:Q14"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="T10:T14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="M15:M19"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="L10:L14"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="U10:U14"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="L60:L64"/>
+    <mergeCell ref="Q60:Q64"/>
+    <mergeCell ref="T45:T49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="T50:T54"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="L45:L49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -9182,22 +9182,22 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:23" ht="30" customHeight="1">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="J2" s="150" t="s">
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="J2" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="2:23" ht="12" customHeight="1"/>
     <row r="4" spans="2:23" ht="25.5" customHeight="1">
@@ -9205,35 +9205,35 @@
         <v>4</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="151" t="s">
+      <c r="H4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="151" t="s">
+      <c r="L4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="151" t="s">
+      <c r="P4" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="151" t="s">
+      <c r="T4" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="2:23" ht="35" customHeight="1">
@@ -9241,31 +9241,31 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="160"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="156" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="167" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="155" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="166" t="s">
+      <c r="L5" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="154" t="s">
+      <c r="M5" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="158" t="s">
+      <c r="N5" s="155" t="s">
         <v>59</v>
       </c>
       <c r="O5" s="7"/>
@@ -9283,22 +9283,22 @@
         <v>0.3541666666666663</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="154" t="s">
+      <c r="D6" s="149"/>
+      <c r="E6" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="153"/>
+      <c r="F6" s="156"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="164"/>
+      <c r="H6" s="167"/>
       <c r="I6" s="165"/>
-      <c r="J6" s="158"/>
+      <c r="J6" s="155"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="158"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="155"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="161"/>
+      <c r="Q6" s="148"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -9311,20 +9311,20 @@
         <v>0.37499999999999961</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="153"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="164"/>
+      <c r="H7" s="167"/>
       <c r="I7" s="165"/>
-      <c r="J7" s="158"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="158"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="155"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="161"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -9337,20 +9337,20 @@
         <v>0.39583333333333293</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="153"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="156"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="164"/>
+      <c r="H8" s="167"/>
       <c r="I8" s="165"/>
-      <c r="J8" s="158"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="158"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="155"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="161"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -9363,20 +9363,20 @@
         <v>0.41666666666666624</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="153"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="164"/>
+      <c r="H9" s="167"/>
       <c r="I9" s="165"/>
-      <c r="J9" s="158"/>
+      <c r="J9" s="155"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="158"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="155"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="161"/>
+      <c r="Q9" s="148"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -9389,33 +9389,33 @@
         <v>0.41666666666666624</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="153" t="s">
+      <c r="F10" s="156" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="167"/>
+      <c r="J10" s="168"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="156" t="s">
+      <c r="L10" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="154" t="s">
+      <c r="M10" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="153" t="s">
+      <c r="N10" s="156" t="s">
         <v>67</v>
       </c>
       <c r="O10" s="29"/>
-      <c r="P10" s="156" t="s">
+      <c r="P10" s="154" t="s">
         <v>68</v>
       </c>
       <c r="Q10" s="165" t="s">
@@ -9423,10 +9423,10 @@
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="156" t="s">
+      <c r="T10" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="154" t="s">
+      <c r="U10" s="153" t="s">
         <v>70</v>
       </c>
       <c r="V10" s="31"/>
@@ -9437,24 +9437,24 @@
         <v>0.43749999999999956</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="153"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="32"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="167"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="168"/>
       <c r="K11" s="33"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="156"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="156"/>
+      <c r="P11" s="154"/>
       <c r="Q11" s="165"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="154"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="153"/>
       <c r="V11" s="25"/>
     </row>
     <row r="12" spans="2:23" ht="35" customHeight="1">
@@ -9463,24 +9463,24 @@
         <v>0.45833333333333287</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="153"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="32"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="167"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="168"/>
       <c r="K12" s="33"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="156"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="156"/>
+      <c r="P12" s="154"/>
       <c r="Q12" s="165"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="154"/>
+      <c r="T12" s="154"/>
+      <c r="U12" s="153"/>
       <c r="V12" s="25"/>
     </row>
     <row r="13" spans="2:23" ht="35" customHeight="1">
@@ -9489,24 +9489,24 @@
         <v>0.47916666666666619</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="153"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="156"/>
       <c r="G13" s="32"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="167"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="168"/>
       <c r="K13" s="33"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="156"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="156"/>
+      <c r="P13" s="154"/>
       <c r="Q13" s="165"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="153"/>
       <c r="V13" s="25"/>
     </row>
     <row r="14" spans="2:23" ht="35" customHeight="1">
@@ -9515,24 +9515,24 @@
         <v>0.4999999999999995</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="153"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="156"/>
       <c r="G14" s="32"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="167"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="168"/>
       <c r="K14" s="33"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="156"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="156"/>
+      <c r="P14" s="154"/>
       <c r="Q14" s="165"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="153"/>
       <c r="V14" s="25"/>
     </row>
     <row r="15" spans="2:23" ht="35" customHeight="1">
@@ -9542,26 +9542,26 @@
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="154" t="s">
+      <c r="E15" s="153" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="166" t="s">
         <v>72</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="156" t="s">
+      <c r="L15" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="154" t="s">
+      <c r="M15" s="153" t="s">
         <v>74</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="156" t="s">
+      <c r="P15" s="154" t="s">
         <v>75</v>
       </c>
       <c r="Q15" s="165" t="s">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="163"/>
+      <c r="T15" s="150"/>
       <c r="U15" s="5"/>
       <c r="V15" s="25"/>
     </row>
@@ -9580,22 +9580,22 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="154"/>
+      <c r="E16" s="153"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="168"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="153"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="156"/>
+      <c r="P16" s="154"/>
       <c r="Q16" s="165"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="163"/>
+      <c r="T16" s="150"/>
       <c r="U16" s="5"/>
       <c r="V16" s="25"/>
     </row>
@@ -9606,22 +9606,22 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="154"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="168"/>
+      <c r="H17" s="166"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="153"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="156"/>
+      <c r="P17" s="154"/>
       <c r="Q17" s="165"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="163"/>
+      <c r="T17" s="150"/>
       <c r="U17" s="5"/>
       <c r="V17" s="25"/>
     </row>
@@ -9632,24 +9632,24 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="154"/>
+      <c r="E18" s="153"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="168"/>
+      <c r="H18" s="166"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="153"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="156"/>
+      <c r="P18" s="154"/>
       <c r="Q18" s="165"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="163"/>
+      <c r="T18" s="150"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="158" t="s">
+      <c r="V18" s="155" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9660,24 +9660,24 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="154"/>
+      <c r="E19" s="153"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="168"/>
+      <c r="H19" s="166"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="153"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="156"/>
+      <c r="P19" s="154"/>
       <c r="Q19" s="165"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="163"/>
+      <c r="T19" s="150"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="158"/>
+      <c r="V19" s="155"/>
     </row>
     <row r="20" spans="2:22" ht="35" customHeight="1">
       <c r="B20" s="14">
@@ -9689,7 +9689,7 @@
       <c r="E20" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="153" t="s">
+      <c r="F20" s="156" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="16"/>
@@ -9699,17 +9699,17 @@
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="168" t="s">
+      <c r="L20" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="154" t="s">
+      <c r="M20" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="N20" s="158" t="s">
+      <c r="N20" s="155" t="s">
         <v>81</v>
       </c>
       <c r="O20" s="35"/>
-      <c r="P20" s="156" t="s">
+      <c r="P20" s="154" t="s">
         <v>82</v>
       </c>
       <c r="Q20" s="165" t="s">
@@ -9717,13 +9717,13 @@
       </c>
       <c r="R20" s="35"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="156" t="s">
+      <c r="T20" s="154" t="s">
         <v>84</v>
       </c>
       <c r="U20" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="V20" s="158"/>
+      <c r="V20" s="155"/>
     </row>
     <row r="21" spans="2:22" ht="35" customHeight="1">
       <c r="B21" s="19">
@@ -9733,23 +9733,23 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="165"/>
-      <c r="F21" s="153"/>
+      <c r="F21" s="156"/>
       <c r="G21" s="7"/>
       <c r="H21" s="5"/>
       <c r="I21" s="165"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="158"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="155"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="156"/>
+      <c r="P21" s="154"/>
       <c r="Q21" s="165"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="156"/>
+      <c r="T21" s="154"/>
       <c r="U21" s="165"/>
-      <c r="V21" s="158"/>
+      <c r="V21" s="155"/>
     </row>
     <row r="22" spans="2:22" ht="35" customHeight="1">
       <c r="B22" s="19">
@@ -9759,23 +9759,23 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="165"/>
-      <c r="F22" s="153"/>
+      <c r="F22" s="156"/>
       <c r="G22" s="7"/>
       <c r="H22" s="5"/>
       <c r="I22" s="165"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="158"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="155"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="156"/>
+      <c r="P22" s="154"/>
       <c r="Q22" s="165"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="156"/>
+      <c r="T22" s="154"/>
       <c r="U22" s="165"/>
-      <c r="V22" s="158"/>
+      <c r="V22" s="155"/>
     </row>
     <row r="23" spans="2:22" ht="35" customHeight="1">
       <c r="B23" s="19">
@@ -9785,23 +9785,23 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="165"/>
-      <c r="F23" s="153"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="7"/>
       <c r="H23" s="5"/>
       <c r="I23" s="165"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="158"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="155"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="156"/>
+      <c r="P23" s="154"/>
       <c r="Q23" s="165"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="156"/>
+      <c r="T23" s="154"/>
       <c r="U23" s="165"/>
-      <c r="V23" s="158"/>
+      <c r="V23" s="155"/>
     </row>
     <row r="24" spans="2:22" ht="35" customHeight="1">
       <c r="B24" s="19">
@@ -9813,21 +9813,21 @@
       <c r="E24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="153"/>
+      <c r="F24" s="156"/>
       <c r="G24" s="7"/>
       <c r="H24" s="5"/>
       <c r="I24" s="165"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="158"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="155"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="156"/>
+      <c r="P24" s="154"/>
       <c r="Q24" s="165"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="156"/>
+      <c r="T24" s="154"/>
       <c r="U24" s="165"/>
       <c r="V24" s="36"/>
     </row>
@@ -9837,10 +9837,10 @@
         <v>0.66666666666666641</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="154" t="s">
+      <c r="E25" s="153" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="29"/>
@@ -9851,21 +9851,21 @@
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="168" t="s">
+      <c r="L25" s="166" t="s">
         <v>89</v>
       </c>
       <c r="M25" s="17"/>
-      <c r="N25" s="158"/>
+      <c r="N25" s="155"/>
       <c r="O25" s="37"/>
-      <c r="P25" s="168" t="s">
+      <c r="P25" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="Q25" s="154" t="s">
+      <c r="Q25" s="153" t="s">
         <v>91</v>
       </c>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="156" t="s">
+      <c r="T25" s="154" t="s">
         <v>92</v>
       </c>
       <c r="U25" s="17"/>
@@ -9877,23 +9877,23 @@
         <v>0.68749999999999978</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="154"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="153"/>
       <c r="F26" s="32"/>
       <c r="G26" s="7"/>
       <c r="H26" s="5"/>
       <c r="I26" s="165"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="168"/>
+      <c r="L26" s="166"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="158"/>
+      <c r="N26" s="155"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="154"/>
+      <c r="P26" s="166"/>
+      <c r="Q26" s="153"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="156"/>
+      <c r="T26" s="154"/>
       <c r="U26" s="5"/>
       <c r="V26" s="36"/>
     </row>
@@ -9903,23 +9903,23 @@
         <v>0.70833333333333315</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="154"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="153"/>
       <c r="F27" s="32"/>
       <c r="G27" s="7"/>
       <c r="H27" s="5"/>
       <c r="I27" s="165"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="168"/>
+      <c r="L27" s="166"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="158"/>
+      <c r="N27" s="155"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="168"/>
-      <c r="Q27" s="154"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="153"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="156"/>
+      <c r="T27" s="154"/>
       <c r="U27" s="5"/>
       <c r="V27" s="36"/>
     </row>
@@ -9929,23 +9929,23 @@
         <v>0.72916666666666652</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="154"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="153"/>
       <c r="F28" s="32"/>
       <c r="G28" s="7"/>
       <c r="H28" s="5"/>
       <c r="I28" s="165"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="168"/>
+      <c r="L28" s="166"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="158"/>
+      <c r="N28" s="155"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="154"/>
+      <c r="P28" s="166"/>
+      <c r="Q28" s="153"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="156"/>
+      <c r="T28" s="154"/>
       <c r="U28" s="5"/>
       <c r="V28" s="25"/>
     </row>
@@ -9955,7 +9955,7 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="166"/>
+      <c r="D29" s="164"/>
       <c r="E29" s="28" t="s">
         <v>93</v>
       </c>
@@ -9965,15 +9965,15 @@
       <c r="I29" s="165"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="168"/>
+      <c r="L29" s="166"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="158"/>
+      <c r="N29" s="155"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="168"/>
-      <c r="Q29" s="154"/>
+      <c r="P29" s="166"/>
+      <c r="Q29" s="153"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="156"/>
+      <c r="T29" s="154"/>
       <c r="U29" s="5"/>
       <c r="V29" s="25"/>
     </row>
@@ -10153,37 +10153,37 @@
     <row r="39" spans="2:23" ht="25.5" customHeight="1">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="159"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="159"/>
-      <c r="U39" s="159"/>
-      <c r="V39" s="159"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="2:23" ht="25.5" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="161"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="148"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="162"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="151"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
@@ -10200,20 +10200,20 @@
     <row r="41" spans="2:23" ht="25.5" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="161"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="162"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="151"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="161"/>
+      <c r="M41" s="148"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="161"/>
+      <c r="Q41" s="148"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -10223,20 +10223,20 @@
     <row r="42" spans="2:23" ht="25.5" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="161"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="148"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="162"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="151"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="161"/>
+      <c r="M42" s="148"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="161"/>
+      <c r="Q42" s="148"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
@@ -10246,20 +10246,20 @@
     <row r="43" spans="2:23" ht="25.5" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="161"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="148"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="162"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="151"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="161"/>
+      <c r="M43" s="148"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="161"/>
+      <c r="Q43" s="148"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -10269,20 +10269,20 @@
     <row r="44" spans="2:23" ht="25.5" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="161"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="148"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="162"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="151"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="161"/>
+      <c r="M44" s="148"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="161"/>
+      <c r="Q44" s="148"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -10292,15 +10292,15 @@
     <row r="45" spans="2:23" ht="25.5" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="160"/>
-      <c r="E45" s="161"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="148"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="162"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="160"/>
+      <c r="L45" s="149"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -10308,22 +10308,22 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="160"/>
+      <c r="T45" s="149"/>
       <c r="U45" s="5"/>
       <c r="V45" s="25"/>
     </row>
     <row r="46" spans="2:23" ht="25.5" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="161"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="148"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="151"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="160"/>
+      <c r="L46" s="149"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -10331,22 +10331,22 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="160"/>
+      <c r="T46" s="149"/>
       <c r="U46" s="5"/>
       <c r="V46" s="25"/>
     </row>
     <row r="47" spans="2:23" ht="25.5" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="161"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="148"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="162"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="151"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="160"/>
+      <c r="L47" s="149"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -10354,22 +10354,22 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="160"/>
+      <c r="T47" s="149"/>
       <c r="U47" s="5"/>
       <c r="V47" s="25"/>
     </row>
     <row r="48" spans="2:23" ht="25.5" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="161"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="148"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="162"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="151"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="160"/>
+      <c r="L48" s="149"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -10377,22 +10377,22 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="160"/>
+      <c r="T48" s="149"/>
       <c r="U48" s="5"/>
       <c r="V48" s="25"/>
     </row>
     <row r="49" spans="2:22" ht="25.5" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="161"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="148"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="162"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="151"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="160"/>
+      <c r="L49" s="149"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -10400,14 +10400,14 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="160"/>
+      <c r="T49" s="149"/>
       <c r="U49" s="5"/>
       <c r="V49" s="25"/>
     </row>
     <row r="50" spans="2:22" ht="25.5" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="160"/>
+      <c r="D50" s="149"/>
       <c r="E50" s="27"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -10416,22 +10416,22 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="161"/>
+      <c r="M50" s="148"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="163"/>
+      <c r="T50" s="150"/>
       <c r="U50" s="5"/>
       <c r="V50" s="25"/>
     </row>
     <row r="51" spans="2:22" ht="25.5" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="161"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="148"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="5"/>
@@ -10439,22 +10439,22 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="161"/>
+      <c r="M51" s="148"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="163"/>
+      <c r="T51" s="150"/>
       <c r="U51" s="5"/>
       <c r="V51" s="25"/>
     </row>
     <row r="52" spans="2:22" ht="25.5" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="161"/>
+      <c r="D52" s="149"/>
+      <c r="E52" s="148"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="5"/>
@@ -10462,22 +10462,22 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="161"/>
+      <c r="M52" s="148"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="163"/>
+      <c r="T52" s="150"/>
       <c r="U52" s="5"/>
       <c r="V52" s="25"/>
     </row>
     <row r="53" spans="2:22" ht="25.5" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="161"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="148"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="5"/>
@@ -10485,22 +10485,22 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="161"/>
+      <c r="M53" s="148"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="163"/>
+      <c r="T53" s="150"/>
       <c r="U53" s="5"/>
       <c r="V53" s="25"/>
     </row>
     <row r="54" spans="2:22" ht="25.5" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="161"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="148"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="5"/>
@@ -10508,14 +10508,14 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="161"/>
+      <c r="M54" s="148"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="163"/>
+      <c r="T54" s="150"/>
       <c r="U54" s="5"/>
       <c r="V54" s="25"/>
     </row>
@@ -10523,7 +10523,7 @@
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="161"/>
+      <c r="E55" s="148"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="5"/>
@@ -10546,7 +10546,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="161"/>
+      <c r="E56" s="148"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="5"/>
@@ -10569,7 +10569,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="161"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="5"/>
@@ -10592,7 +10592,7 @@
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="161"/>
+      <c r="E58" s="148"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="5"/>
@@ -10642,15 +10642,15 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="161"/>
+      <c r="I60" s="148"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="160"/>
+      <c r="L60" s="149"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="161"/>
+      <c r="Q60" s="148"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -10665,15 +10665,15 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="161"/>
+      <c r="I61" s="148"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="160"/>
+      <c r="L61" s="149"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="161"/>
+      <c r="Q61" s="148"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
@@ -10688,15 +10688,15 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="161"/>
+      <c r="I62" s="148"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="160"/>
+      <c r="L62" s="149"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="161"/>
+      <c r="Q62" s="148"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
@@ -10711,15 +10711,15 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="161"/>
+      <c r="I63" s="148"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="160"/>
+      <c r="L63" s="149"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="161"/>
+      <c r="Q63" s="148"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
@@ -10734,15 +10734,15 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="161"/>
+      <c r="I64" s="148"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="160"/>
+      <c r="L64" s="149"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="161"/>
+      <c r="Q64" s="148"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
@@ -10866,48 +10866,29 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="L60:L64"/>
-    <mergeCell ref="Q60:Q64"/>
-    <mergeCell ref="T45:T49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="M50:M54"/>
-    <mergeCell ref="T50:T54"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="L45:L49"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="V18:V23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="L20:L24"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="N20:N29"/>
-    <mergeCell ref="P20:P24"/>
-    <mergeCell ref="Q20:Q24"/>
-    <mergeCell ref="T20:T24"/>
-    <mergeCell ref="U20:U24"/>
-    <mergeCell ref="Q25:Q29"/>
-    <mergeCell ref="T25:T29"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
     <mergeCell ref="T10:T14"/>
     <mergeCell ref="U10:U14"/>
     <mergeCell ref="E15:E19"/>
@@ -10922,29 +10903,48 @@
     <mergeCell ref="N10:N14"/>
     <mergeCell ref="P10:P14"/>
     <mergeCell ref="Q10:Q14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="V18:V23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="N20:N29"/>
+    <mergeCell ref="P20:P24"/>
+    <mergeCell ref="Q20:Q24"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="U20:U24"/>
+    <mergeCell ref="Q25:Q29"/>
+    <mergeCell ref="T25:T29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="L45:L49"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="L60:L64"/>
+    <mergeCell ref="Q60:Q64"/>
+    <mergeCell ref="T45:T49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="M50:M54"/>
+    <mergeCell ref="T50:T54"/>
+    <mergeCell ref="E51:E58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -10984,10 +10984,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="46" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="169"/>
+      <c r="B2" s="185"/>
       <c r="C2" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="40" customHeight="1">
@@ -11014,14 +11014,14 @@
       <c r="C6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="170" t="s">
+      <c r="D6" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
     </row>
     <row r="7" spans="1:9" ht="115" customHeight="1">
       <c r="B7" s="44">
@@ -11030,10 +11030,10 @@
       <c r="C7" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="171" t="s">
+      <c r="D7" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="171"/>
+      <c r="E7" s="172"/>
       <c r="F7" s="46" t="s">
         <v>101</v>
       </c>
@@ -11054,18 +11054,18 @@
       <c r="C8" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="172"/>
+      <c r="E8" s="186"/>
       <c r="F8" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="173" t="s">
+      <c r="G8" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
     </row>
     <row r="9" spans="1:9" ht="113" customHeight="1">
       <c r="B9" s="44">
@@ -11074,20 +11074,20 @@
       <c r="C9" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="174" t="s">
+      <c r="D9" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="174"/>
+      <c r="E9" s="175"/>
       <c r="F9" s="52" t="s">
         <v>111</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="175" t="s">
+      <c r="H9" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="175"/>
+      <c r="I9" s="174"/>
     </row>
     <row r="10" spans="1:9" ht="53.25" customHeight="1">
       <c r="B10">
@@ -11101,10 +11101,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="65" customHeight="1">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="176"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:9">
@@ -11131,14 +11131,14 @@
       <c r="C16" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="170" t="s">
+      <c r="D16" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="1:9" ht="97" customHeight="1">
       <c r="B17" s="44">
@@ -11147,17 +11147,17 @@
       <c r="C17" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="171" t="s">
+      <c r="D17" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="171"/>
+      <c r="E17" s="172"/>
       <c r="F17" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="177" t="s">
+      <c r="G17" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="177"/>
+      <c r="H17" s="182"/>
       <c r="I17" s="49" t="s">
         <v>118</v>
       </c>
@@ -11172,10 +11172,10 @@
       <c r="D18" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="178"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="48" t="s">
         <v>120</v>
       </c>
@@ -11193,20 +11193,20 @@
       <c r="C19" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="174" t="s">
+      <c r="D19" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="174"/>
+      <c r="E19" s="175"/>
       <c r="F19" s="52" t="s">
         <v>123</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="175" t="s">
+      <c r="H19" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="175"/>
+      <c r="I19" s="174"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="A20" s="54"/>
@@ -11220,10 +11220,10 @@
       <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="59" customHeight="1">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="176"/>
+      <c r="B22" s="177"/>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1">
       <c r="A23" s="54"/>
@@ -11256,14 +11256,14 @@
       <c r="C26" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
     </row>
     <row r="27" spans="1:9" ht="120" customHeight="1">
       <c r="A27" s="54"/>
@@ -11273,17 +11273,17 @@
       <c r="C27" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="171" t="s">
+      <c r="D27" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="171"/>
+      <c r="E27" s="172"/>
       <c r="F27" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="173" t="s">
+      <c r="G27" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="173"/>
+      <c r="H27" s="171"/>
       <c r="I27" s="49" t="s">
         <v>127</v>
       </c>
@@ -11299,10 +11299,10 @@
       <c r="D28" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="178" t="s">
+      <c r="E28" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="178"/>
+      <c r="F28" s="180"/>
       <c r="G28" s="51" t="s">
         <v>120</v>
       </c>
@@ -11321,20 +11321,20 @@
       <c r="C29" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="174" t="s">
+      <c r="D29" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="174"/>
+      <c r="E29" s="175"/>
       <c r="F29" s="52" t="s">
         <v>130</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="H29" s="175" t="s">
+      <c r="H29" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="175"/>
+      <c r="I29" s="174"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
       <c r="A30" s="54"/>
@@ -11352,10 +11352,10 @@
       <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:9" ht="58" customHeight="1">
-      <c r="A33" s="176" t="s">
+      <c r="A33" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="176"/>
+      <c r="B33" s="177"/>
     </row>
     <row r="34" spans="1:9" ht="20" customHeight="1">
       <c r="A34" s="54"/>
@@ -11392,14 +11392,14 @@
       <c r="C38" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="170" t="s">
+      <c r="D38" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
     </row>
     <row r="39" spans="1:9" ht="93" customHeight="1">
       <c r="A39" s="54"/>
@@ -11409,10 +11409,10 @@
       <c r="C39" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="171" t="s">
+      <c r="D39" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="171"/>
+      <c r="E39" s="172"/>
       <c r="F39" s="50" t="s">
         <v>132</v>
       </c>
@@ -11434,18 +11434,18 @@
       <c r="C40" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="178" t="s">
+      <c r="D40" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="178"/>
+      <c r="E40" s="180"/>
       <c r="F40" s="179" t="s">
         <v>135</v>
       </c>
       <c r="G40" s="179"/>
-      <c r="H40" s="173" t="s">
+      <c r="H40" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="173"/>
+      <c r="I40" s="171"/>
     </row>
     <row r="41" spans="1:9" ht="102" customHeight="1">
       <c r="A41" s="54"/>
@@ -11455,20 +11455,20 @@
       <c r="C41" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="174" t="s">
+      <c r="D41" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="174"/>
+      <c r="E41" s="175"/>
       <c r="F41" s="52" t="s">
         <v>137</v>
       </c>
       <c r="G41" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="175" t="s">
+      <c r="H41" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="175"/>
+      <c r="I41" s="174"/>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1">
       <c r="A42" s="54"/>
@@ -11494,10 +11494,10 @@
       <c r="B46" s="56"/>
     </row>
     <row r="47" spans="1:9" ht="43" customHeight="1">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="169"/>
+      <c r="B47" s="185"/>
       <c r="C47" s="57"/>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
@@ -11551,14 +11551,14 @@
       <c r="C51" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="180"/>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
     </row>
     <row r="52" spans="1:9" ht="100" customHeight="1">
       <c r="A52" s="58"/>
@@ -11577,10 +11577,10 @@
       <c r="F52" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="173" t="s">
+      <c r="G52" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="173"/>
+      <c r="H52" s="171"/>
       <c r="I52" s="63" t="s">
         <v>104</v>
       </c>
@@ -11593,18 +11593,18 @@
       <c r="C53" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="181"/>
-      <c r="F53" s="182" t="s">
+      <c r="E53" s="184"/>
+      <c r="F53" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="182"/>
-      <c r="H53" s="173" t="s">
+      <c r="G53" s="181"/>
+      <c r="H53" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="I53" s="173"/>
+      <c r="I53" s="171"/>
     </row>
     <row r="54" spans="1:9" ht="80" customHeight="1">
       <c r="A54" s="58"/>
@@ -11614,20 +11614,20 @@
       <c r="C54" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="171" t="s">
+      <c r="D54" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="171"/>
+      <c r="E54" s="172"/>
       <c r="F54" s="64" t="s">
         <v>111</v>
       </c>
       <c r="G54" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="175" t="s">
+      <c r="H54" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I54" s="175"/>
+      <c r="I54" s="174"/>
     </row>
     <row r="55" spans="1:9">
       <c r="B55">
@@ -11637,10 +11637,10 @@
     </row>
     <row r="57" spans="1:9" ht="14" customHeight="1"/>
     <row r="59" spans="1:9" ht="50" customHeight="1">
-      <c r="A59" s="176" t="s">
+      <c r="A59" s="177" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="176"/>
+      <c r="B59" s="177"/>
     </row>
     <row r="60" spans="1:9" ht="13" hidden="1" customHeight="1"/>
     <row r="61" spans="1:9" ht="13" hidden="1" customHeight="1">
@@ -11667,14 +11667,14 @@
       <c r="C63" s="45">
         <v>4</v>
       </c>
-      <c r="D63" s="180" t="s">
+      <c r="D63" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
+      <c r="E63" s="176"/>
+      <c r="F63" s="176"/>
+      <c r="G63" s="176"/>
+      <c r="H63" s="176"/>
+      <c r="I63" s="176"/>
     </row>
     <row r="64" spans="1:9" ht="108" customHeight="1">
       <c r="B64" s="44">
@@ -11689,11 +11689,11 @@
       <c r="E64" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F64" s="183" t="s">
+      <c r="F64" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="183"/>
-      <c r="H64" s="183"/>
+      <c r="G64" s="173"/>
+      <c r="H64" s="173"/>
       <c r="I64" s="49" t="s">
         <v>146</v>
       </c>
@@ -11705,18 +11705,18 @@
       <c r="C65" s="45">
         <v>2</v>
       </c>
-      <c r="D65" s="184" t="s">
+      <c r="D65" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="184"/>
-      <c r="F65" s="182" t="s">
+      <c r="E65" s="183"/>
+      <c r="F65" s="181" t="s">
         <v>148</v>
       </c>
-      <c r="G65" s="182"/>
-      <c r="H65" s="173" t="s">
+      <c r="G65" s="181"/>
+      <c r="H65" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="I65" s="173"/>
+      <c r="I65" s="171"/>
     </row>
     <row r="66" spans="1:9" ht="100" customHeight="1">
       <c r="B66" s="44">
@@ -11725,20 +11725,20 @@
       <c r="C66" s="45">
         <v>1</v>
       </c>
-      <c r="D66" s="171" t="s">
+      <c r="D66" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="171"/>
+      <c r="E66" s="172"/>
       <c r="F66" s="52" t="s">
         <v>130</v>
       </c>
       <c r="G66" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="H66" s="175" t="s">
+      <c r="H66" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I66" s="175"/>
+      <c r="I66" s="174"/>
     </row>
     <row r="67" spans="1:9">
       <c r="B67">
@@ -11747,10 +11747,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="40" customHeight="1">
-      <c r="A70" s="176" t="s">
+      <c r="A70" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="B70" s="176"/>
+      <c r="B70" s="177"/>
       <c r="C70" s="39"/>
     </row>
     <row r="71" spans="1:9">
@@ -11777,14 +11777,14 @@
       <c r="C73" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="170" t="s">
+      <c r="D73" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="170"/>
-      <c r="F73" s="170"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="170"/>
+      <c r="E73" s="178"/>
+      <c r="F73" s="178"/>
+      <c r="G73" s="178"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
     </row>
     <row r="74" spans="1:9" ht="88.5" customHeight="1">
       <c r="B74" s="44">
@@ -11793,17 +11793,17 @@
       <c r="C74" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="171" t="s">
+      <c r="D74" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="171"/>
+      <c r="E74" s="172"/>
       <c r="F74" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="177" t="s">
+      <c r="G74" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="H74" s="177"/>
+      <c r="H74" s="182"/>
       <c r="I74" s="49" t="s">
         <v>118</v>
       </c>
@@ -11815,18 +11815,18 @@
       <c r="C75" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="185" t="s">
+      <c r="D75" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="E75" s="185"/>
-      <c r="F75" s="182" t="s">
+      <c r="E75" s="169"/>
+      <c r="F75" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="G75" s="182"/>
-      <c r="H75" s="173" t="s">
+      <c r="G75" s="181"/>
+      <c r="H75" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="I75" s="173"/>
+      <c r="I75" s="171"/>
     </row>
     <row r="76" spans="1:9" ht="74.25" customHeight="1">
       <c r="B76" s="44">
@@ -11835,20 +11835,20 @@
       <c r="C76" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="174" t="s">
+      <c r="D76" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="174"/>
+      <c r="E76" s="175"/>
       <c r="F76" s="52" t="s">
         <v>123</v>
       </c>
       <c r="G76" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H76" s="175" t="s">
+      <c r="H76" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I76" s="175"/>
+      <c r="I76" s="174"/>
     </row>
     <row r="77" spans="1:9">
       <c r="B77">
@@ -11857,10 +11857,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="53" customHeight="1">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="176"/>
+      <c r="B80" s="177"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="54"/>
@@ -11897,14 +11897,14 @@
       <c r="C85" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="170" t="s">
+      <c r="D85" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E85" s="170"/>
-      <c r="F85" s="170"/>
-      <c r="G85" s="170"/>
-      <c r="H85" s="170"/>
-      <c r="I85" s="170"/>
+      <c r="E85" s="178"/>
+      <c r="F85" s="178"/>
+      <c r="G85" s="178"/>
+      <c r="H85" s="178"/>
+      <c r="I85" s="178"/>
     </row>
     <row r="86" spans="1:9" ht="98" customHeight="1">
       <c r="A86" s="54"/>
@@ -11939,18 +11939,18 @@
       <c r="C87" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="178" t="s">
+      <c r="D87" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="178"/>
-      <c r="F87" s="182" t="s">
+      <c r="E87" s="180"/>
+      <c r="F87" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="G87" s="182"/>
-      <c r="H87" s="173" t="s">
+      <c r="G87" s="181"/>
+      <c r="H87" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="I87" s="173"/>
+      <c r="I87" s="171"/>
     </row>
     <row r="88" spans="1:9" ht="101" customHeight="1">
       <c r="A88" s="54"/>
@@ -11960,20 +11960,20 @@
       <c r="C88" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="174" t="s">
+      <c r="D88" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="E88" s="174"/>
+      <c r="E88" s="175"/>
       <c r="F88" s="52" t="s">
         <v>137</v>
       </c>
       <c r="G88" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="H88" s="175" t="s">
+      <c r="H88" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I88" s="175"/>
+      <c r="I88" s="174"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="54"/>
@@ -12018,14 +12018,14 @@
       <c r="C95" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="180" t="s">
+      <c r="D95" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="E95" s="180"/>
-      <c r="F95" s="180"/>
-      <c r="G95" s="180"/>
-      <c r="H95" s="180"/>
-      <c r="I95" s="180"/>
+      <c r="E95" s="176"/>
+      <c r="F95" s="176"/>
+      <c r="G95" s="176"/>
+      <c r="H95" s="176"/>
+      <c r="I95" s="176"/>
     </row>
     <row r="96" spans="1:9" ht="89" customHeight="1">
       <c r="B96" s="44">
@@ -12034,17 +12034,17 @@
       <c r="C96" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="171" t="s">
+      <c r="D96" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="171"/>
+      <c r="E96" s="172"/>
       <c r="F96" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="G96" s="173" t="s">
+      <c r="G96" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="173"/>
+      <c r="H96" s="171"/>
       <c r="I96" s="49" t="s">
         <v>104</v>
       </c>
@@ -12056,18 +12056,18 @@
       <c r="C97" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D97" s="185" t="s">
+      <c r="D97" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="E97" s="185"/>
-      <c r="F97" s="186" t="s">
+      <c r="E97" s="169"/>
+      <c r="F97" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="G97" s="186"/>
-      <c r="H97" s="173" t="s">
+      <c r="G97" s="170"/>
+      <c r="H97" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="I97" s="173"/>
+      <c r="I97" s="171"/>
     </row>
     <row r="98" spans="1:9" ht="94" customHeight="1">
       <c r="B98" s="44">
@@ -12076,18 +12076,18 @@
       <c r="C98" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="171" t="s">
+      <c r="D98" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="171"/>
-      <c r="F98" s="183" t="s">
+      <c r="E98" s="172"/>
+      <c r="F98" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="183"/>
-      <c r="H98" s="175" t="s">
+      <c r="G98" s="173"/>
+      <c r="H98" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I98" s="175"/>
+      <c r="I98" s="174"/>
     </row>
     <row r="99" spans="1:9">
       <c r="B99">
@@ -12104,77 +12104,77 @@
     <row r="120" ht="110" customHeight="1"/>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:H96"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="F97:G97"/>
     <mergeCell ref="H97:I97"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="F98:G98"/>
     <mergeCell ref="H98:I98"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12243,28 +12243,28 @@
       <c r="D5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
       <c r="N5" s="44">
         <v>30</v>
       </c>
       <c r="O5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="187" t="s">
+      <c r="P5" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="187"/>
+      <c r="Q5" s="190"/>
+      <c r="R5" s="190"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
     </row>
     <row r="6" spans="3:21" ht="134.25" customHeight="1">
       <c r="C6" s="44">
@@ -12311,10 +12311,10 @@
       <c r="D7" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="E7" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="178"/>
+      <c r="F7" s="180"/>
       <c r="G7" s="68" t="s">
         <v>163</v>
       </c>
@@ -12331,18 +12331,18 @@
       <c r="O7" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="178" t="s">
+      <c r="P7" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="186" t="s">
+      <c r="Q7" s="180"/>
+      <c r="R7" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="S7" s="186"/>
-      <c r="T7" s="173" t="s">
+      <c r="S7" s="170"/>
+      <c r="T7" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="U7" s="173"/>
+      <c r="U7" s="171"/>
     </row>
     <row r="8" spans="3:21" ht="120" customHeight="1">
       <c r="C8" s="44">
@@ -12351,11 +12351,11 @@
       <c r="D8" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
       <c r="H8" s="69" t="s">
         <v>168</v>
       </c>
@@ -12369,11 +12369,11 @@
       <c r="O8" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P8" s="190" t="s">
+      <c r="P8" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="190"/>
-      <c r="R8" s="190"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187"/>
       <c r="S8" s="67" t="s">
         <v>170</v>
       </c>
@@ -12414,14 +12414,14 @@
       <c r="D16" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="187" t="s">
+      <c r="E16" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
     </row>
     <row r="17" spans="3:10" ht="103.5" customHeight="1">
       <c r="C17" s="44">
@@ -12434,10 +12434,10 @@
         <v>173</v>
       </c>
       <c r="F17" s="188"/>
-      <c r="G17" s="178" t="s">
+      <c r="G17" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="178"/>
+      <c r="H17" s="180"/>
       <c r="I17" s="70" t="s">
         <v>175</v>
       </c>
@@ -12474,11 +12474,11 @@
       <c r="D19" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="190" t="s">
+      <c r="E19" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
       <c r="H19" s="52" t="s">
         <v>182</v>
       </c>
@@ -12531,14 +12531,14 @@
       <c r="D24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="187" t="s">
+      <c r="E24" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="190"/>
     </row>
     <row r="25" spans="3:10" ht="126.75" customHeight="1">
       <c r="C25" s="44">
@@ -12591,11 +12591,11 @@
       <c r="D27" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="190" t="s">
+      <c r="E27" s="187" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
       <c r="H27" s="188" t="s">
         <v>192</v>
       </c>
@@ -12648,14 +12648,14 @@
       <c r="D33" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="170" t="s">
+      <c r="E33" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="3:10" ht="91" customHeight="1">
       <c r="C34" s="44">
@@ -12708,11 +12708,11 @@
       <c r="D36" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="190" t="s">
+      <c r="E36" s="187" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
       <c r="H36" s="52" t="s">
         <v>197</v>
       </c>
@@ -12723,6 +12723,33 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="E33:J33"/>
@@ -12730,33 +12757,6 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12767,8 +12767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AMK124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="I78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -12794,18 +12794,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="65" customHeight="1">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="195" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="F2" s="193" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="F2" s="196" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
     </row>
     <row r="4" spans="1:17" s="78" customFormat="1" ht="65" customHeight="1">
       <c r="A4" s="77" t="s">
@@ -16902,7 +16902,7 @@
       <c r="C83" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="194" t="s">
+      <c r="D83" s="193" t="s">
         <v>518</v>
       </c>
       <c r="E83" s="104" t="s">
@@ -16953,7 +16953,7 @@
       <c r="C84" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="D84" s="194"/>
+      <c r="D84" s="193"/>
       <c r="E84" s="104" t="s">
         <v>522</v>
       </c>
@@ -17370,13 +17370,13 @@
       <c r="B92" s="104" t="s">
         <v>548</v>
       </c>
-      <c r="C92" s="194" t="s">
+      <c r="C92" s="193" t="s">
         <v>229</v>
       </c>
       <c r="D92" s="104" t="s">
         <v>453</v>
       </c>
-      <c r="E92" s="194" t="s">
+      <c r="E92" s="193" t="s">
         <v>83</v>
       </c>
       <c r="F92" s="101" t="s">
@@ -17421,11 +17421,11 @@
       <c r="B93" s="104" t="s">
         <v>548</v>
       </c>
-      <c r="C93" s="194"/>
+      <c r="C93" s="193"/>
       <c r="D93" s="104" t="s">
         <v>453</v>
       </c>
-      <c r="E93" s="194"/>
+      <c r="E93" s="193"/>
       <c r="F93" s="105" t="s">
         <v>299</v>
       </c>
@@ -17549,7 +17549,9 @@
       <c r="N95" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="O95" s="124"/>
+      <c r="O95" s="124" t="s">
+        <v>225</v>
+      </c>
       <c r="P95" s="128">
         <v>10</v>
       </c>
@@ -17567,7 +17569,7 @@
       <c r="C96" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="D96" s="194" t="s">
+      <c r="D96" s="193" t="s">
         <v>555</v>
       </c>
       <c r="E96" s="100" t="s">
@@ -17620,7 +17622,7 @@
       <c r="C97" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="194"/>
+      <c r="D97" s="193"/>
       <c r="E97" s="100" t="s">
         <v>560</v>
       </c>
@@ -17674,7 +17676,7 @@
       <c r="D98" s="104" t="s">
         <v>564</v>
       </c>
-      <c r="E98" s="194" t="s">
+      <c r="E98" s="193" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="101" t="s">
@@ -17727,7 +17729,7 @@
       <c r="D99" s="104" t="s">
         <v>564</v>
       </c>
-      <c r="E99" s="194"/>
+      <c r="E99" s="193"/>
       <c r="F99" s="101" t="s">
         <v>299</v>
       </c>
@@ -17778,7 +17780,7 @@
       <c r="D100" s="104" t="s">
         <v>564</v>
       </c>
-      <c r="E100" s="194" t="s">
+      <c r="E100" s="193" t="s">
         <v>30</v>
       </c>
       <c r="F100" s="101" t="s">
@@ -17831,7 +17833,7 @@
       <c r="D101" s="104" t="s">
         <v>564</v>
       </c>
-      <c r="E101" s="194"/>
+      <c r="E101" s="193"/>
       <c r="F101" s="101" t="s">
         <v>264</v>
       </c>
@@ -17882,7 +17884,7 @@
       <c r="D102" s="104" t="s">
         <v>572</v>
       </c>
-      <c r="E102" s="194" t="s">
+      <c r="E102" s="193" t="s">
         <v>573</v>
       </c>
       <c r="F102" s="105"/>
@@ -17933,7 +17935,7 @@
       <c r="D103" s="104" t="s">
         <v>572</v>
       </c>
-      <c r="E103" s="194"/>
+      <c r="E103" s="193"/>
       <c r="F103" s="108"/>
       <c r="G103" s="105" t="s">
         <v>402</v>
@@ -18988,10 +18990,10 @@
       <c r="O123" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="P123" s="196">
+      <c r="P123" s="194">
         <v>10</v>
       </c>
-      <c r="Q123" s="195" t="s">
+      <c r="Q123" s="192" t="s">
         <v>237</v>
       </c>
     </row>
@@ -19041,23 +19043,23 @@
       <c r="O124" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="P124" s="196"/>
-      <c r="Q124" s="195"/>
+      <c r="P124" s="194"/>
+      <c r="Q124" s="192"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:Q124" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E92:E93"/>
     <mergeCell ref="Q123:Q124"/>
     <mergeCell ref="D96:D97"/>
     <mergeCell ref="E98:E99"/>
     <mergeCell ref="E100:E101"/>
     <mergeCell ref="E102:E103"/>
     <mergeCell ref="P123:P124"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E92:E93"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="AB71:AB72 F6:F75 F77:F103 F106:F124" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/blog/content/KurseMscECMX.xlsx
+++ b/blog/content/KurseMscECMX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/WebEcon/blog/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7FB739-196D-AB46-BCBC-64A60AE2B8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679AB3FB-4084-8644-844E-578B92092114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:AML124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" zoomScale="85" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -2652,7 +2652,7 @@
         <v>69</v>
       </c>
       <c r="Q7" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R7" s="17" t="s">
         <v>371</v>
@@ -4486,10 +4486,10 @@
         <v>150</v>
       </c>
       <c r="Q39" s="17">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="S39" s="17" t="s">
         <v>399</v>
